--- a/BTS.Web/AppFiles/Tmp/03. Mau ho so kiem dnh BTS - 405.xlsx
+++ b/BTS.Web/AppFiles/Tmp/03. Mau ho so kiem dnh BTS - 405.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="14805" windowHeight="7875" tabRatio="581" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="14805" windowHeight="7875" tabRatio="581" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="InCaseOf" sheetId="11" r:id="rId1"/>
@@ -366,7 +366,7 @@
     <t>Bình Phước</t>
   </si>
   <si>
-    <t>BRV</t>
+    <t>VTU</t>
   </si>
   <si>
     <t>Bà Rịa - Vũng Tàu</t>
@@ -378,7 +378,7 @@
     <t>Bình Thuận</t>
   </si>
   <si>
-    <t>BTR</t>
+    <t>BTE</t>
   </si>
   <si>
     <t>Bến Tre</t>
@@ -15100,8 +15100,8 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15643,8 +15643,8 @@
   </sheetPr>
   <dimension ref="A1:J406"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129:G129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -25019,9 +25019,7 @@
   </sheetPr>
   <dimension ref="A1:AB405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
@@ -60306,7 +60304,7 @@
   </sheetPr>
   <dimension ref="A1:K400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
